--- a/src/04_Gant Chart.xlsx
+++ b/src/04_Gant Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myungha/Desktop/Github/MoneyManager_for_intel/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44270943-F8FC-3B42-9B84-8112D4A6EED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7B6EC2-20F7-994C-BB4D-8F88261DC1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3760" yWindow="2200" windowWidth="28300" windowHeight="17440" xr2:uid="{FDA64757-50FA-684F-8087-8E7F312C180F}"/>
   </bookViews>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -387,13 +387,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,44 +588,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,11 +1004,11 @@
   <dimension ref="B1:AG64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="3" ySplit="6" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="6" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -807,26 +1025,26 @@
   <sheetData>
     <row r="1" spans="2:33" ht="10" customHeight="1"/>
     <row r="2" spans="2:33" ht="35">
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="2:33">
       <c r="D3" s="1"/>
@@ -856,7 +1074,7 @@
       <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="24"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:33">
       <c r="E5" s="10"/>
@@ -867,50 +1085,50 @@
         <v>0</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="17" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="17" t="s">
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="17" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="17" t="s">
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="20" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-    </row>
-    <row r="7" spans="2:33">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+    </row>
+    <row r="7" spans="2:33" ht="19" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>1</v>
       </c>
@@ -1007,402 +1225,402 @@
       </c>
     </row>
     <row r="8" spans="2:33" ht="10" customHeight="1">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-    </row>
-    <row r="9" spans="2:33" ht="10" customHeight="1">
-      <c r="B9" s="13"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="30"/>
+    </row>
+    <row r="9" spans="2:33" ht="10" customHeight="1" thickBot="1">
+      <c r="B9" s="18"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="39"/>
     </row>
     <row r="10" spans="2:33" ht="10" customHeight="1">
-      <c r="B10" s="13"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-    </row>
-    <row r="11" spans="2:33" ht="10" customHeight="1">
-      <c r="B11" s="13"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
+      <c r="AB10" s="29"/>
+      <c r="AC10" s="29"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="29"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="30"/>
+    </row>
+    <row r="11" spans="2:33" ht="10" customHeight="1" thickBot="1">
+      <c r="B11" s="34"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="33"/>
     </row>
     <row r="12" spans="2:33" ht="10" customHeight="1">
-      <c r="B12" s="13"/>
-      <c r="C12" s="15" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-    </row>
-    <row r="13" spans="2:33" ht="10" customHeight="1">
-      <c r="B13" s="13"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="29"/>
+      <c r="Z12" s="29"/>
+      <c r="AA12" s="29"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="29"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="30"/>
+    </row>
+    <row r="13" spans="2:33" ht="10" customHeight="1" thickBot="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="33"/>
     </row>
     <row r="14" spans="2:33" ht="10" customHeight="1">
-      <c r="B14" s="13"/>
-      <c r="C14" s="15" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-    </row>
-    <row r="15" spans="2:33" ht="10" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="30"/>
+    </row>
+    <row r="15" spans="2:33" ht="10" customHeight="1" thickBot="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="33"/>
     </row>
     <row r="16" spans="2:33" ht="10" customHeight="1">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-    </row>
-    <row r="17" spans="2:33" ht="10" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="30"/>
+    </row>
+    <row r="17" spans="2:33" ht="10" customHeight="1" thickBot="1">
+      <c r="B17" s="34"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="33"/>
     </row>
     <row r="18" spans="2:33" ht="10" customHeight="1">
-      <c r="B18" s="13"/>
-      <c r="C18" s="15" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
     </row>
     <row r="19" spans="2:33" ht="10" customHeight="1">
-      <c r="B19" s="13"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="12"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1431,8 +1649,8 @@
       <c r="AG19" s="4"/>
     </row>
     <row r="20" spans="2:33" ht="10" customHeight="1">
-      <c r="B20" s="13"/>
-      <c r="C20" s="15" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="4"/>
@@ -1467,13 +1685,13 @@
       <c r="AG20" s="4"/>
     </row>
     <row r="21" spans="2:33" ht="10" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="21"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -1501,8 +1719,8 @@
       <c r="AG21" s="4"/>
     </row>
     <row r="22" spans="2:33" ht="10" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="4"/>
@@ -1537,15 +1755,15 @@
       <c r="AG22" s="4"/>
     </row>
     <row r="23" spans="2:33" ht="10" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="21"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
@@ -1571,8 +1789,8 @@
       <c r="AG23" s="4"/>
     </row>
     <row r="24" spans="2:33" ht="10" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="15" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="4"/>
@@ -1607,15 +1825,15 @@
       <c r="AG24" s="4"/>
     </row>
     <row r="25" spans="2:33" ht="10" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
@@ -1641,8 +1859,8 @@
       <c r="AG25" s="4"/>
     </row>
     <row r="26" spans="2:33" ht="10" customHeight="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="15" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="4"/>
@@ -1677,14 +1895,14 @@
       <c r="AG26" s="4"/>
     </row>
     <row r="27" spans="2:33" ht="10" customHeight="1">
-      <c r="B27" s="14"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="12"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
@@ -1711,10 +1929,10 @@
       <c r="AG27" s="4"/>
     </row>
     <row r="28" spans="2:33" ht="10" customHeight="1">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="4"/>
@@ -1749,14 +1967,14 @@
       <c r="AG28" s="4"/>
     </row>
     <row r="29" spans="2:33" ht="10" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="12"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
@@ -1783,8 +2001,8 @@
       <c r="AG29" s="4"/>
     </row>
     <row r="30" spans="2:33" ht="10" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D30" s="4"/>
@@ -1819,15 +2037,15 @@
       <c r="AG30" s="4"/>
     </row>
     <row r="31" spans="2:33" ht="10" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="14"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -1853,8 +2071,8 @@
       <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="2:33" ht="10" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="15" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="4"/>
@@ -1889,15 +2107,15 @@
       <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="2:33" ht="10" customHeight="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1923,8 +2141,8 @@
       <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="2:33" ht="10" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="15" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D34" s="4"/>
@@ -1959,15 +2177,15 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="2:33" ht="10" customHeight="1">
-      <c r="B35" s="14"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -1993,10 +2211,10 @@
       <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="2:33" ht="10" customHeight="1">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="4"/>
@@ -2031,15 +2249,15 @@
       <c r="AG36" s="4"/>
     </row>
     <row r="37" spans="2:33" ht="10" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="24"/>
+      <c r="J37" s="12"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -2065,8 +2283,8 @@
       <c r="AG37" s="4"/>
     </row>
     <row r="38" spans="2:33" ht="10" customHeight="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="15" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="4"/>
@@ -2101,16 +2319,16 @@
       <c r="AG38" s="4"/>
     </row>
     <row r="39" spans="2:33" ht="10" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="4"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -2135,8 +2353,8 @@
       <c r="AG39" s="4"/>
     </row>
     <row r="40" spans="2:33" ht="10" customHeight="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="15" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D40" s="4"/>
@@ -2171,15 +2389,15 @@
       <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="2:33" ht="10" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="21"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="24"/>
+      <c r="J41" s="12"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -2205,8 +2423,8 @@
       <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="2:33" ht="10" customHeight="1">
-      <c r="B42" s="13"/>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="13" t="s">
         <v>23</v>
       </c>
       <c r="D42" s="4"/>
@@ -2241,16 +2459,16 @@
       <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="2:33" ht="10" customHeight="1">
-      <c r="B43" s="13"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="4"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2275,10 +2493,10 @@
       <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="2:33" ht="10" customHeight="1">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="4"/>
@@ -2290,9 +2508,9 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -2313,8 +2531,8 @@
       <c r="AG44" s="4"/>
     </row>
     <row r="45" spans="2:33" ht="10" customHeight="1">
-      <c r="B45" s="23"/>
-      <c r="C45" s="21"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -2347,8 +2565,8 @@
       <c r="AG45" s="4"/>
     </row>
     <row r="46" spans="2:33" ht="10" customHeight="1">
-      <c r="B46" s="23"/>
-      <c r="C46" s="15" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="13" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="4"/>
@@ -2383,8 +2601,8 @@
       <c r="AG46" s="4"/>
     </row>
     <row r="47" spans="2:33" ht="10" customHeight="1">
-      <c r="B47" s="23"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -2417,8 +2635,8 @@
       <c r="AG47" s="4"/>
     </row>
     <row r="48" spans="2:33" ht="10" customHeight="1">
-      <c r="B48" s="23"/>
-      <c r="C48" s="15" t="s">
+      <c r="B48" s="17"/>
+      <c r="C48" s="13" t="s">
         <v>27</v>
       </c>
       <c r="D48" s="4"/>
@@ -2453,8 +2671,8 @@
       <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="2:33" ht="10" customHeight="1">
-      <c r="B49" s="23"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2487,8 +2705,8 @@
       <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="2:33" ht="10" customHeight="1">
-      <c r="B50" s="23"/>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="4"/>
@@ -2523,8 +2741,8 @@
       <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="2:33" ht="10" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -2557,10 +2775,10 @@
       <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="2:33" ht="10" customHeight="1">
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="4"/>
@@ -2595,15 +2813,15 @@
       <c r="AG52" s="4"/>
     </row>
     <row r="53" spans="2:33" ht="10" customHeight="1">
-      <c r="B53" s="13"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="24"/>
+      <c r="J53" s="12"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -2629,8 +2847,8 @@
       <c r="AG53" s="4"/>
     </row>
     <row r="54" spans="2:33" ht="10" customHeight="1">
-      <c r="B54" s="13"/>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D54" s="4"/>
@@ -2665,8 +2883,8 @@
       <c r="AG54" s="4"/>
     </row>
     <row r="55" spans="2:33" ht="10" customHeight="1">
-      <c r="B55" s="13"/>
-      <c r="C55" s="21"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2674,7 +2892,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="12"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -2699,8 +2917,8 @@
       <c r="AG55" s="4"/>
     </row>
     <row r="56" spans="2:33" ht="10" customHeight="1">
-      <c r="B56" s="13"/>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D56" s="4"/>
@@ -2735,8 +2953,8 @@
       <c r="AG56" s="4"/>
     </row>
     <row r="57" spans="2:33" ht="10" customHeight="1">
-      <c r="B57" s="13"/>
-      <c r="C57" s="21"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -2744,7 +2962,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="12"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -2769,8 +2987,8 @@
       <c r="AG57" s="4"/>
     </row>
     <row r="58" spans="2:33" ht="10" customHeight="1">
-      <c r="B58" s="13"/>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D58" s="4"/>
@@ -2805,8 +3023,8 @@
       <c r="AG58" s="4"/>
     </row>
     <row r="59" spans="2:33" ht="10" customHeight="1">
-      <c r="B59" s="13"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="14"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -2839,8 +3057,8 @@
       <c r="AG59" s="4"/>
     </row>
     <row r="60" spans="2:33" ht="10" customHeight="1">
-      <c r="B60" s="13"/>
-      <c r="C60" s="15" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="4"/>
@@ -2875,8 +3093,8 @@
       <c r="AG60" s="4"/>
     </row>
     <row r="61" spans="2:33" ht="10" customHeight="1">
-      <c r="B61" s="14"/>
-      <c r="C61" s="21"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="14"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -2909,10 +3127,10 @@
       <c r="AG61" s="4"/>
     </row>
     <row r="62" spans="2:33" ht="10" customHeight="1">
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C62" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D62" s="4"/>
@@ -2947,8 +3165,8 @@
       <c r="AG62" s="4"/>
     </row>
     <row r="63" spans="2:33" ht="10" customHeight="1">
-      <c r="B63" s="14"/>
-      <c r="C63" s="21"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="14"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3016,16 +3234,29 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D2:U2"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B44:B51"/>
+    <mergeCell ref="B16:B27"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C54:C55"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="C38:C39"/>
@@ -3035,29 +3266,16 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D2:U2"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
